--- a/table/stage_story.xlsx
+++ b/table/stage_story.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\source\json-tool\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\ToJson\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>category</t>
   </si>
@@ -42,15 +42,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>time_bronze</t>
-  </si>
-  <si>
-    <t>time_silver</t>
-  </si>
-  <si>
-    <t>time_gold</t>
-  </si>
-  <si>
     <t>reward_ft</t>
   </si>
   <si>
@@ -66,49 +57,385 @@
     <t>description</t>
   </si>
   <si>
-    <t>stage_spdemo_1=&gt;stage_spdemo_2=&gt;stage_spdemo_main</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>duel</t>
-  </si>
-  <si>
     <t>G1+box1</t>
   </si>
   <si>
     <t>G1+C500</t>
   </si>
   <si>
-    <t>C500</t>
-  </si>
-  <si>
-    <t>击败杂鱼1</t>
-  </si>
-  <si>
-    <t>1-1-1</t>
-  </si>
-  <si>
-    <t>stage_spdemo_main</t>
-  </si>
-  <si>
-    <t>C510</t>
-  </si>
-  <si>
-    <t>击败杂鱼2</t>
-  </si>
-  <si>
-    <t>1-1-1,1-1-2</t>
-  </si>
-  <si>
     <t>C520</t>
   </si>
   <si>
-    <t>击败杂鱼3</t>
-  </si>
-  <si>
     <t>json_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次通关奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次3星奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议车速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_stage_type_combo</t>
+  </si>
+  <si>
+    <t>ui_stage_type_combo_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_drift</t>
+  </si>
+  <si>
+    <t>ui_stage_type_drift_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_collect</t>
+  </si>
+  <si>
+    <t>ui_stage_type_collect_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_overtake</t>
+  </si>
+  <si>
+    <t>ui_stage_type_overtake_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_perfect</t>
+  </si>
+  <si>
+    <t>ui_stage_type_perfect_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_rival</t>
+  </si>
+  <si>
+    <t>ui_stage_type_rival_bg</t>
+  </si>
+  <si>
+    <t>ui_stage_type_time</t>
+  </si>
+  <si>
+    <t>ui_stage_type_time_bg</t>
+  </si>
+  <si>
+    <t>达到10连击</t>
+  </si>
+  <si>
+    <t>漂移2000米</t>
+  </si>
+  <si>
+    <t>钻20个火圈</t>
+  </si>
+  <si>
+    <t>惊险超车10次</t>
+  </si>
+  <si>
+    <t>把小红安全送回家</t>
+  </si>
+  <si>
+    <t>取得第1名</t>
+  </si>
+  <si>
+    <t>限时内到达终点</t>
+  </si>
+  <si>
+    <t>漂移2000米，你就是秋名山之神！</t>
+  </si>
+  <si>
+    <t>开跑车钻火圈，要不要来试试？</t>
+  </si>
+  <si>
+    <t>第10086届滨海GP预选赛，取得第1名吧！</t>
+  </si>
+  <si>
+    <t>stage_spdemo_combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_drift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_overtake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_rival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_spdemo_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是时候展现真正的车技了，惊险超车10连击！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10连击！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋名漂移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻火圈一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又见网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海GP预选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丽说带她兜风，超车10次，就给你一个吻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨工这月两次机会已经用完，再迟到就要扣钱了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_bronze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance_logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,1000,2000,3000,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星成绩
+秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2星成绩
+秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星成绩
+秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_combo连击赛
+2_duel血量对决
+3_drift漂移赛
+4_collect收集赛
+5_overtake超车赛
+6_perfect躲避赛
+7_rival追逐赛
+8_time计时赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过关条件
+1连击数
+3漂移距离
+4收集道具数量
+5超车次数
+6撞车次数小于并达到终点
+7前n个到达终点
+8留空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,500,100,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终点位置
+4收集赛：终点位置,首位置,min间隔，max间隔
+8计时赛：终点位置,checkpoint1,…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间限制
+8计时赛：起始时间,checkpoint1加时间,…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类：
+1主线对决
+2支线杂耍
+3活动
+4每日挑战
+5自由赛事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把小红安全送回家，途中不能撞车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性工时2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水这月两次机会已经用完，再迟到就要扣钱了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_par</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +456,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,9 +498,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,17 +867,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.25" customWidth="1"/>
+    <col min="13" max="13" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="10.5" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -528,188 +916,745 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>120</v>
+      </c>
+      <c r="R4">
+        <v>60</v>
+      </c>
+      <c r="S4">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W4">
+        <v>320</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q5">
+        <v>120</v>
+      </c>
+      <c r="R5">
+        <v>60</v>
+      </c>
+      <c r="S5">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
         <v>14</v>
       </c>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5">
+        <v>280</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1.3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>120</v>
+      </c>
+      <c r="R6">
         <v>60</v>
       </c>
-      <c r="J3">
+      <c r="S6">
         <v>45</v>
       </c>
-      <c r="K3">
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6">
+        <f>W5+10</f>
+        <v>290</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>120</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>45</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W11" si="0">W6+10</f>
+        <v>300</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>120</v>
+      </c>
+      <c r="R8">
+        <v>60</v>
+      </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>300</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>120</v>
+      </c>
+      <c r="R9">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <v>45</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>120</v>
+      </c>
+      <c r="R10">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>45</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="J4">
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11">
+        <v>120</v>
+      </c>
+      <c r="R11">
+        <v>60</v>
+      </c>
+      <c r="S11">
         <v>45</v>
       </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>300</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>45</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5">
-        <v>300</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table/stage_story.xlsx
+++ b/table/stage_story.xlsx
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>滨海GP预选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹性工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +432,11 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海GP
+预选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -934,28 +938,28 @@
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -970,86 +974,86 @@
         <v>10</v>
       </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -1079,28 +1083,28 @@
         <v>28</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="Q3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>23</v>
@@ -1115,10 +1119,10 @@
         <v>24</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1132,8 +1136,8 @@
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
+      <c r="F4" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>59</v>
@@ -1154,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -1220,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7">
         <v>1000</v>
@@ -1286,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="7">
         <v>20</v>
@@ -1341,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -1353,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7">
         <v>10</v>
@@ -1408,7 +1412,7 @@
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -1420,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
@@ -1487,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7">
         <v>5</v>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
         <v>60</v>
@@ -1542,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -1554,10 +1558,10 @@
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10">
         <v>120</v>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
         <v>60</v>
@@ -1609,7 +1613,7 @@
         <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -1621,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11">
         <v>120</v>
